--- a/Code/Results/Cases/Case_3_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_128/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.2394237571923</v>
+        <v>10.51982755881343</v>
       </c>
       <c r="C2">
-        <v>8.888186936228539</v>
+        <v>6.428754427464815</v>
       </c>
       <c r="D2">
-        <v>5.141957228906543</v>
+        <v>6.329196796453393</v>
       </c>
       <c r="F2">
-        <v>26.05522456848717</v>
+        <v>31.64595836692241</v>
       </c>
       <c r="G2">
-        <v>2.115104823722433</v>
+        <v>3.676362259101269</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.50153301191511</v>
+        <v>25.26740506135005</v>
       </c>
       <c r="K2">
-        <v>12.23263607560007</v>
+        <v>11.04650988020718</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.34318743955996</v>
+        <v>10.26763139553136</v>
       </c>
       <c r="C3">
-        <v>8.260936494837932</v>
+        <v>6.231916815297287</v>
       </c>
       <c r="D3">
-        <v>5.156075364825946</v>
+        <v>6.324345970649012</v>
       </c>
       <c r="F3">
-        <v>25.57171836823909</v>
+        <v>31.64030690474888</v>
       </c>
       <c r="G3">
-        <v>2.122321066508277</v>
+        <v>3.678906672085041</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.54023840113986</v>
+        <v>25.34066460789988</v>
       </c>
       <c r="K3">
-        <v>11.43223223736569</v>
+        <v>10.88088821425215</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.76192329186139</v>
+        <v>10.11218708096266</v>
       </c>
       <c r="C4">
-        <v>7.855236989944355</v>
+        <v>6.109775615690326</v>
       </c>
       <c r="D4">
-        <v>5.164844020471937</v>
+        <v>6.321357007615719</v>
       </c>
       <c r="F4">
-        <v>25.2974206569485</v>
+        <v>31.64561919729205</v>
       </c>
       <c r="G4">
-        <v>2.126870627657428</v>
+        <v>3.680550290595583</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.58046754370363</v>
+        <v>25.39101147492261</v>
       </c>
       <c r="K4">
-        <v>10.91418283216848</v>
+        <v>10.7806025609717</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51720206014149</v>
+        <v>10.04879400688309</v>
       </c>
       <c r="C5">
-        <v>7.684683040062441</v>
+        <v>6.059766855820411</v>
       </c>
       <c r="D5">
-        <v>5.16844645174019</v>
+        <v>6.320136782924838</v>
       </c>
       <c r="F5">
-        <v>25.19123913895617</v>
+        <v>31.64998832856073</v>
       </c>
       <c r="G5">
-        <v>2.128755610249089</v>
+        <v>3.68124060062393</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.60079470032795</v>
+        <v>25.41287256691028</v>
       </c>
       <c r="K5">
-        <v>10.69634705810353</v>
+        <v>10.74014237511744</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.47609028873392</v>
+        <v>10.038267750677</v>
       </c>
       <c r="C6">
-        <v>7.65604531037314</v>
+        <v>6.051451383162525</v>
       </c>
       <c r="D6">
-        <v>5.169046509304928</v>
+        <v>6.319934046163603</v>
       </c>
       <c r="F6">
-        <v>25.17394313294579</v>
+        <v>31.65084680546236</v>
       </c>
       <c r="G6">
-        <v>2.129070514491808</v>
+        <v>3.681356467589344</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.6044016505991</v>
+        <v>25.41658363632526</v>
       </c>
       <c r="K6">
-        <v>10.65976837303887</v>
+        <v>10.73345012409743</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.7586547674689</v>
+        <v>10.11133219869517</v>
       </c>
       <c r="C7">
-        <v>7.852958081538461</v>
+        <v>6.10910201340624</v>
       </c>
       <c r="D7">
-        <v>5.164892480876366</v>
+        <v>6.321340559551531</v>
       </c>
       <c r="F7">
-        <v>25.29596611258062</v>
+        <v>31.64566920230948</v>
       </c>
       <c r="G7">
-        <v>2.126895922218464</v>
+        <v>3.680559517173541</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.58072602517527</v>
+        <v>25.391300864585</v>
       </c>
       <c r="K7">
-        <v>10.91127230269729</v>
+        <v>10.78005518263316</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.93679044433006</v>
+        <v>10.43305342087965</v>
       </c>
       <c r="C8">
-        <v>8.676144213111584</v>
+        <v>6.361201532045689</v>
       </c>
       <c r="D8">
-        <v>5.146806770233233</v>
+        <v>6.327526685645475</v>
       </c>
       <c r="F8">
-        <v>25.88378267685623</v>
+        <v>31.64218501050575</v>
       </c>
       <c r="G8">
-        <v>2.11756904127585</v>
+        <v>3.677222732405064</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.51133560121012</v>
+        <v>25.2915485642852</v>
       </c>
       <c r="K8">
-        <v>11.96215193136325</v>
+        <v>10.98914365453551</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.00439162683965</v>
+        <v>11.05497882112514</v>
       </c>
       <c r="C9">
-        <v>10.12994490805675</v>
+        <v>6.84185048399214</v>
       </c>
       <c r="D9">
-        <v>5.111958895310599</v>
+        <v>6.339555049841927</v>
       </c>
       <c r="F9">
-        <v>27.21847850042052</v>
+        <v>31.70514760522741</v>
       </c>
       <c r="G9">
-        <v>2.100166268902682</v>
+        <v>3.671321546243411</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.51541444675829</v>
+        <v>25.13871413953472</v>
       </c>
       <c r="K9">
-        <v>13.81399519507621</v>
+        <v>11.40797543419919</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.37993684209624</v>
+        <v>11.50108465648057</v>
       </c>
       <c r="C10">
-        <v>11.10422746354888</v>
+        <v>7.182299191858804</v>
       </c>
       <c r="D10">
-        <v>5.086494229150049</v>
+        <v>6.348305396056821</v>
       </c>
       <c r="F10">
-        <v>28.31326461420814</v>
+        <v>31.79400513297488</v>
       </c>
       <c r="G10">
-        <v>2.087838469680701</v>
+        <v>3.667373059166811</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.61728301483262</v>
+        <v>25.0527842603239</v>
       </c>
       <c r="K10">
-        <v>15.05062053726868</v>
+        <v>11.71793149723866</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.97558647240708</v>
+        <v>11.70065431772022</v>
       </c>
       <c r="C11">
-        <v>11.52802793590527</v>
+        <v>7.333634527782398</v>
       </c>
       <c r="D11">
-        <v>5.074889136215322</v>
+        <v>6.352262317100391</v>
       </c>
       <c r="F11">
-        <v>28.83670220292721</v>
+        <v>31.8436534969533</v>
       </c>
       <c r="G11">
-        <v>2.082309547123776</v>
+        <v>3.66565990821524</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.68808637394972</v>
+        <v>25.01947213089844</v>
       </c>
       <c r="K11">
-        <v>15.58716495108094</v>
+        <v>11.85877739345491</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19690739796572</v>
+        <v>11.77566459461868</v>
       </c>
       <c r="C12">
-        <v>11.68580371606305</v>
+        <v>7.390375315878686</v>
       </c>
       <c r="D12">
-        <v>5.070487485404103</v>
+        <v>6.353756880301079</v>
       </c>
       <c r="F12">
-        <v>29.03861833991887</v>
+        <v>31.86377565781909</v>
       </c>
       <c r="G12">
-        <v>2.080225426747707</v>
+        <v>3.665023051481125</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.71866848883438</v>
+        <v>25.00769287154812</v>
       </c>
       <c r="K12">
-        <v>15.78668164305192</v>
+        <v>11.91203761943228</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.14942901764437</v>
+        <v>11.75953598732747</v>
       </c>
       <c r="C13">
-        <v>11.6519429534122</v>
+        <v>7.378181234227342</v>
       </c>
       <c r="D13">
-        <v>5.071435837039405</v>
+        <v>6.353435176858965</v>
       </c>
       <c r="F13">
-        <v>28.99496660142766</v>
+        <v>31.85938332526253</v>
       </c>
       <c r="G13">
-        <v>2.080673884563118</v>
+        <v>3.66515968278578</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.71191031319608</v>
+        <v>25.0101925254925</v>
       </c>
       <c r="K13">
-        <v>15.74387365636165</v>
+        <v>11.90057123672583</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.99387909857925</v>
+        <v>11.70683715770235</v>
       </c>
       <c r="C14">
-        <v>11.54106202877586</v>
+        <v>7.338314294027727</v>
       </c>
       <c r="D14">
-        <v>5.07452717403199</v>
+        <v>6.352385355075654</v>
       </c>
       <c r="F14">
-        <v>28.85323947467682</v>
+        <v>31.84528251349627</v>
       </c>
       <c r="G14">
-        <v>2.082137904560744</v>
+        <v>3.665607275974858</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.69052535205968</v>
+        <v>25.01848627812761</v>
       </c>
       <c r="K14">
-        <v>15.60365220832607</v>
+        <v>11.86316094468602</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.89805101335909</v>
+        <v>11.67448213534095</v>
       </c>
       <c r="C15">
-        <v>11.47279411097786</v>
+        <v>7.313819229289674</v>
       </c>
       <c r="D15">
-        <v>5.076419669898599</v>
+        <v>6.351741796463695</v>
       </c>
       <c r="F15">
-        <v>28.76691113940458</v>
+        <v>31.83681725477076</v>
       </c>
       <c r="G15">
-        <v>2.083035848062918</v>
+        <v>3.665882984483818</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.67792505504689</v>
+        <v>25.0236753540538</v>
       </c>
       <c r="K15">
-        <v>15.51728819153733</v>
+        <v>11.84023474893656</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.34041164046204</v>
+        <v>11.48796773762543</v>
       </c>
       <c r="C16">
-        <v>11.07614750822405</v>
+        <v>7.172332807594859</v>
       </c>
       <c r="D16">
-        <v>5.08725188034755</v>
+        <v>6.348046288547449</v>
       </c>
       <c r="F16">
-        <v>28.27957197732623</v>
+        <v>31.79094574036911</v>
       </c>
       <c r="G16">
-        <v>2.08820123786797</v>
+        <v>3.667486683012253</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.61316958543237</v>
+        <v>25.05507793805079</v>
       </c>
       <c r="K16">
-        <v>15.01503936988543</v>
+        <v>11.70871921922979</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.99067173982558</v>
+        <v>11.37262737932519</v>
       </c>
       <c r="C17">
-        <v>10.82790406282479</v>
+        <v>7.084586464384433</v>
       </c>
       <c r="D17">
-        <v>5.093888817242688</v>
+        <v>6.345772843026849</v>
       </c>
       <c r="F17">
-        <v>27.9871454999791</v>
+        <v>31.76516495739729</v>
       </c>
       <c r="G17">
-        <v>2.091389050237279</v>
+        <v>3.668491721809694</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.57988786358333</v>
+        <v>25.07582549134295</v>
       </c>
       <c r="K17">
-        <v>14.70031937762787</v>
+        <v>11.62796095892332</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.78667248886683</v>
+        <v>11.30597412735789</v>
       </c>
       <c r="C18">
-        <v>10.68328919085253</v>
+        <v>7.033787301391607</v>
       </c>
       <c r="D18">
-        <v>5.097704461340394</v>
+        <v>6.344463016173036</v>
       </c>
       <c r="F18">
-        <v>27.82133849482869</v>
+        <v>31.75120542244497</v>
       </c>
       <c r="G18">
-        <v>2.093230153789395</v>
+        <v>3.669077613051409</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.56303221895461</v>
+        <v>25.08830251377017</v>
       </c>
       <c r="K18">
-        <v>14.51684815680621</v>
+        <v>11.58149944256222</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.71711179175543</v>
+        <v>11.28335529104953</v>
       </c>
       <c r="C19">
-        <v>10.63400805758425</v>
+        <v>7.016532804100796</v>
       </c>
       <c r="D19">
-        <v>5.098996196021717</v>
+        <v>6.344019166681231</v>
       </c>
       <c r="F19">
-        <v>27.76560808881418</v>
+        <v>31.7466283309125</v>
       </c>
       <c r="G19">
-        <v>2.093854870375521</v>
+        <v>3.669277330726345</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.55771038814764</v>
+        <v>25.09262023959744</v>
       </c>
       <c r="K19">
-        <v>14.4543044546396</v>
+        <v>11.56576803401389</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.02819525908936</v>
+        <v>11.38493848972054</v>
       </c>
       <c r="C20">
-        <v>10.8545190101179</v>
+        <v>7.0939617837738</v>
       </c>
       <c r="D20">
-        <v>5.093182513973307</v>
+        <v>6.346015086156282</v>
       </c>
       <c r="F20">
-        <v>28.01802723324209</v>
+        <v>31.76781947214052</v>
       </c>
       <c r="G20">
-        <v>2.091048932493735</v>
+        <v>3.668383924889442</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.58319223745986</v>
+        <v>25.07356058739417</v>
       </c>
       <c r="K20">
-        <v>14.73407515058538</v>
+        <v>11.63655939211146</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.03968218078538</v>
+        <v>11.7223319402162</v>
       </c>
       <c r="C21">
-        <v>11.57370325938367</v>
+        <v>7.350039992063458</v>
       </c>
       <c r="D21">
-        <v>5.07361939673315</v>
+        <v>6.352693820740376</v>
       </c>
       <c r="F21">
-        <v>28.89476728287311</v>
+        <v>31.84938845291328</v>
       </c>
       <c r="G21">
-        <v>2.08170764207286</v>
+        <v>3.665475485193052</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.69670226556594</v>
+        <v>25.01602749686042</v>
       </c>
       <c r="K21">
-        <v>15.64493734690493</v>
+        <v>11.87415170332153</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67608667320374</v>
+        <v>11.9395277164818</v>
       </c>
       <c r="C22">
-        <v>12.02798868494934</v>
+        <v>7.514076402572299</v>
       </c>
       <c r="D22">
-        <v>5.060790814459864</v>
+        <v>6.3570361993983</v>
       </c>
       <c r="F22">
-        <v>29.48937357297728</v>
+        <v>31.91039689422186</v>
       </c>
       <c r="G22">
-        <v>2.075657348039225</v>
+        <v>3.66364384674483</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.79298552801209</v>
+        <v>24.98329711998346</v>
       </c>
       <c r="K22">
-        <v>16.21894073902439</v>
+        <v>12.02897134267525</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.33865121913632</v>
+        <v>11.82393348146504</v>
       </c>
       <c r="C23">
-        <v>11.78693966998107</v>
+        <v>7.426849033381141</v>
       </c>
       <c r="D23">
-        <v>5.067642919354335</v>
+        <v>6.35472079611518</v>
       </c>
       <c r="F23">
-        <v>29.1700257825302</v>
+        <v>31.87713337361264</v>
       </c>
       <c r="G23">
-        <v>2.07888213159471</v>
+        <v>3.664615116367981</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.73949052145644</v>
+        <v>25.00031883032476</v>
       </c>
       <c r="K23">
-        <v>15.91450532049453</v>
+        <v>11.94640030997706</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.01124000622743</v>
+        <v>11.37937369762242</v>
       </c>
       <c r="C24">
-        <v>10.84249230547711</v>
+        <v>7.089724295750058</v>
       </c>
       <c r="D24">
-        <v>5.093501833437669</v>
+        <v>6.345905576674474</v>
       </c>
       <c r="F24">
-        <v>28.00405840095848</v>
+        <v>31.76661667990992</v>
       </c>
       <c r="G24">
-        <v>2.091202673464714</v>
+        <v>3.668432634699418</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.58169125220852</v>
+        <v>25.07458284069258</v>
       </c>
       <c r="K24">
-        <v>14.71882206586736</v>
+        <v>11.63267213768816</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.47059120224605</v>
+        <v>10.88826498802085</v>
       </c>
       <c r="C25">
-        <v>9.753433943787437</v>
+        <v>6.713761026642088</v>
       </c>
       <c r="D25">
-        <v>5.121344773025506</v>
+        <v>6.336314590502766</v>
       </c>
       <c r="F25">
-        <v>26.83755816023424</v>
+        <v>31.68063048897474</v>
       </c>
       <c r="G25">
-        <v>2.104787368574016</v>
+        <v>3.672849674981649</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.49794095176339</v>
+        <v>25.17545070000388</v>
       </c>
       <c r="K25">
-        <v>13.33505958593083</v>
+        <v>11.29405300026637</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_128/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.51982755881343</v>
+        <v>13.23942375719227</v>
       </c>
       <c r="C2">
-        <v>6.428754427464815</v>
+        <v>8.88818693622853</v>
       </c>
       <c r="D2">
-        <v>6.329196796453393</v>
+        <v>5.141957228906515</v>
       </c>
       <c r="F2">
-        <v>31.64595836692241</v>
+        <v>26.05522456848744</v>
       </c>
       <c r="G2">
-        <v>3.676362259101269</v>
+        <v>2.115104823722432</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.26740506135005</v>
+        <v>18.50153301191535</v>
       </c>
       <c r="K2">
-        <v>11.04650988020718</v>
+        <v>12.23263607560006</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.26763139553136</v>
+        <v>12.34318743955996</v>
       </c>
       <c r="C3">
-        <v>6.231916815297287</v>
+        <v>8.260936494837839</v>
       </c>
       <c r="D3">
-        <v>6.324345970649012</v>
+        <v>5.156075364826004</v>
       </c>
       <c r="F3">
-        <v>31.64030690474888</v>
+        <v>25.57171836823934</v>
       </c>
       <c r="G3">
-        <v>3.678906672085041</v>
+        <v>2.122321066508409</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.34066460789988</v>
+        <v>18.54023840113998</v>
       </c>
       <c r="K3">
-        <v>10.88088821425215</v>
+        <v>11.43223223736566</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.11218708096266</v>
+        <v>11.76192329186139</v>
       </c>
       <c r="C4">
-        <v>6.109775615690326</v>
+        <v>7.855236989944303</v>
       </c>
       <c r="D4">
-        <v>6.321357007615719</v>
+        <v>5.164844020471879</v>
       </c>
       <c r="F4">
-        <v>31.64561919729205</v>
+        <v>25.29742065694845</v>
       </c>
       <c r="G4">
-        <v>3.680550290595583</v>
+        <v>2.126870627657427</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.39101147492261</v>
+        <v>18.58046754370356</v>
       </c>
       <c r="K4">
-        <v>10.7806025609717</v>
+        <v>10.91418283216845</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.04879400688309</v>
+        <v>11.51720206014149</v>
       </c>
       <c r="C5">
-        <v>6.059766855820411</v>
+        <v>7.684683040062391</v>
       </c>
       <c r="D5">
-        <v>6.320136782924838</v>
+        <v>5.168446451740397</v>
       </c>
       <c r="F5">
-        <v>31.64998832856073</v>
+        <v>25.19123913895599</v>
       </c>
       <c r="G5">
-        <v>3.68124060062393</v>
+        <v>2.128755610248821</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.41287256691028</v>
+        <v>18.60079470032778</v>
       </c>
       <c r="K5">
-        <v>10.74014237511744</v>
+        <v>10.69634705810353</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.038267750677</v>
+        <v>11.47609028873384</v>
       </c>
       <c r="C6">
-        <v>6.051451383162525</v>
+        <v>7.656045310373158</v>
       </c>
       <c r="D6">
-        <v>6.319934046163603</v>
+        <v>5.169046509305049</v>
       </c>
       <c r="F6">
-        <v>31.65084680546236</v>
+        <v>25.1739431329462</v>
       </c>
       <c r="G6">
-        <v>3.681356467589344</v>
+        <v>2.129070514491676</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.41658363632526</v>
+        <v>18.60440165059953</v>
       </c>
       <c r="K6">
-        <v>10.73345012409743</v>
+        <v>10.6597683730388</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.11133219869517</v>
+        <v>11.75865476746881</v>
       </c>
       <c r="C7">
-        <v>6.10910201340624</v>
+        <v>7.852958081538554</v>
       </c>
       <c r="D7">
-        <v>6.321340559551531</v>
+        <v>5.164892480876358</v>
       </c>
       <c r="F7">
-        <v>31.64566920230948</v>
+        <v>25.29596611258083</v>
       </c>
       <c r="G7">
-        <v>3.680559517173541</v>
+        <v>2.126895922218598</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.391300864585</v>
+        <v>18.58072602517558</v>
       </c>
       <c r="K7">
-        <v>10.78005518263316</v>
+        <v>10.91127230269733</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.43305342087965</v>
+        <v>12.93679044433012</v>
       </c>
       <c r="C8">
-        <v>6.361201532045689</v>
+        <v>8.676144213111584</v>
       </c>
       <c r="D8">
-        <v>6.327526685645475</v>
+        <v>5.146806770233427</v>
       </c>
       <c r="F8">
-        <v>31.64218501050575</v>
+        <v>25.88378267685588</v>
       </c>
       <c r="G8">
-        <v>3.677222732405064</v>
+        <v>2.117569041275852</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.2915485642852</v>
+        <v>18.51133560120984</v>
       </c>
       <c r="K8">
-        <v>10.98914365453551</v>
+        <v>11.96215193136332</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.05497882112514</v>
+        <v>15.00439162683975</v>
       </c>
       <c r="C9">
-        <v>6.84185048399214</v>
+        <v>10.12994490805675</v>
       </c>
       <c r="D9">
-        <v>6.339555049841927</v>
+        <v>5.111958895310477</v>
       </c>
       <c r="F9">
-        <v>31.70514760522741</v>
+        <v>27.21847850042047</v>
       </c>
       <c r="G9">
-        <v>3.671321546243411</v>
+        <v>2.10016626890295</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.13871413953472</v>
+        <v>18.51541444675813</v>
       </c>
       <c r="K9">
-        <v>11.40797543419919</v>
+        <v>13.81399519507627</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.50108465648057</v>
+        <v>16.37993684209636</v>
       </c>
       <c r="C10">
-        <v>7.182299191858804</v>
+        <v>11.10422746354878</v>
       </c>
       <c r="D10">
-        <v>6.348305396056821</v>
+        <v>5.086494229149909</v>
       </c>
       <c r="F10">
-        <v>31.79400513297488</v>
+        <v>28.31326461420819</v>
       </c>
       <c r="G10">
-        <v>3.667373059166811</v>
+        <v>2.087838469680433</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.0527842603239</v>
+        <v>18.6172830148325</v>
       </c>
       <c r="K10">
-        <v>11.71793149723866</v>
+        <v>15.0506205372687</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.70065431772022</v>
+        <v>16.97558647240713</v>
       </c>
       <c r="C11">
-        <v>7.333634527782398</v>
+        <v>11.52802793590535</v>
       </c>
       <c r="D11">
-        <v>6.352262317100391</v>
+        <v>5.074889136215146</v>
       </c>
       <c r="F11">
-        <v>31.8436534969533</v>
+        <v>28.83670220292715</v>
       </c>
       <c r="G11">
-        <v>3.66565990821524</v>
+        <v>2.082309547123908</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.01947213089844</v>
+        <v>18.6880863739496</v>
       </c>
       <c r="K11">
-        <v>11.85877739345491</v>
+        <v>15.58716495108098</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.77566459461868</v>
+        <v>17.19690739796578</v>
       </c>
       <c r="C12">
-        <v>7.390375315878686</v>
+        <v>11.68580371606309</v>
       </c>
       <c r="D12">
-        <v>6.353756880301079</v>
+        <v>5.070487485404032</v>
       </c>
       <c r="F12">
-        <v>31.86377565781909</v>
+        <v>29.03861833991882</v>
       </c>
       <c r="G12">
-        <v>3.665023051481125</v>
+        <v>2.080225426748109</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.00769287154812</v>
+        <v>18.71866848883419</v>
       </c>
       <c r="K12">
-        <v>11.91203761943228</v>
+        <v>15.786681643052</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.75953598732747</v>
+        <v>17.14942901764435</v>
       </c>
       <c r="C13">
-        <v>7.378181234227342</v>
+        <v>11.6519429534122</v>
       </c>
       <c r="D13">
-        <v>6.353435176858965</v>
+        <v>5.071435837039649</v>
       </c>
       <c r="F13">
-        <v>31.85938332526253</v>
+        <v>28.99496660142772</v>
       </c>
       <c r="G13">
-        <v>3.66515968278578</v>
+        <v>2.080673884563252</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.0101925254925</v>
+        <v>18.71191031319615</v>
       </c>
       <c r="K13">
-        <v>11.90057123672583</v>
+        <v>15.74387365636165</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.70683715770235</v>
+        <v>16.99387909857929</v>
       </c>
       <c r="C14">
-        <v>7.338314294027727</v>
+        <v>11.54106202877587</v>
       </c>
       <c r="D14">
-        <v>6.352385355075654</v>
+        <v>5.074527174031736</v>
       </c>
       <c r="F14">
-        <v>31.84528251349627</v>
+        <v>28.85323947467688</v>
       </c>
       <c r="G14">
-        <v>3.665607275974858</v>
+        <v>2.082137904560481</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.01848627812761</v>
+        <v>18.69052535205968</v>
       </c>
       <c r="K14">
-        <v>11.86316094468602</v>
+        <v>15.60365220832611</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.67448213534095</v>
+        <v>16.89805101335919</v>
       </c>
       <c r="C15">
-        <v>7.313819229289674</v>
+        <v>11.47279411097775</v>
       </c>
       <c r="D15">
-        <v>6.351741796463695</v>
+        <v>5.076419669898526</v>
       </c>
       <c r="F15">
-        <v>31.83681725477076</v>
+        <v>28.76691113940468</v>
       </c>
       <c r="G15">
-        <v>3.665882984483818</v>
+        <v>2.08303584806265</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.0236753540538</v>
+        <v>18.67792505504692</v>
       </c>
       <c r="K15">
-        <v>11.84023474893656</v>
+        <v>15.51728819153736</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.48796773762543</v>
+        <v>16.3404116404621</v>
       </c>
       <c r="C16">
-        <v>7.172332807594859</v>
+        <v>11.07614750822397</v>
       </c>
       <c r="D16">
-        <v>6.348046288547449</v>
+        <v>5.087251880347667</v>
       </c>
       <c r="F16">
-        <v>31.79094574036911</v>
+        <v>28.2795719773263</v>
       </c>
       <c r="G16">
-        <v>3.667486683012253</v>
+        <v>2.088201237867837</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.05507793805079</v>
+        <v>18.61316958543248</v>
       </c>
       <c r="K16">
-        <v>11.70871921922979</v>
+        <v>15.01503936988547</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.37262737932519</v>
+        <v>15.99067173982553</v>
       </c>
       <c r="C17">
-        <v>7.084586464384433</v>
+        <v>10.82790406282479</v>
       </c>
       <c r="D17">
-        <v>6.345772843026849</v>
+        <v>5.093888817242747</v>
       </c>
       <c r="F17">
-        <v>31.76516495739729</v>
+        <v>27.98714549997929</v>
       </c>
       <c r="G17">
-        <v>3.668491721809694</v>
+        <v>2.091389050237013</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.07582549134295</v>
+        <v>18.57988786358361</v>
       </c>
       <c r="K17">
-        <v>11.62796095892332</v>
+        <v>14.70031937762784</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.30597412735789</v>
+        <v>15.78667248886682</v>
       </c>
       <c r="C18">
-        <v>7.033787301391607</v>
+        <v>10.68328919085253</v>
       </c>
       <c r="D18">
-        <v>6.344463016173036</v>
+        <v>5.097704461340462</v>
       </c>
       <c r="F18">
-        <v>31.75120542244497</v>
+        <v>27.82133849482864</v>
       </c>
       <c r="G18">
-        <v>3.669077613051409</v>
+        <v>2.093230153789261</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.08830251377017</v>
+        <v>18.5630322189546</v>
       </c>
       <c r="K18">
-        <v>11.58149944256222</v>
+        <v>14.5168481568062</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.28335529104953</v>
+        <v>15.71711179175541</v>
       </c>
       <c r="C19">
-        <v>7.016532804100796</v>
+        <v>10.63400805758406</v>
       </c>
       <c r="D19">
-        <v>6.344019166681231</v>
+        <v>5.098996196021957</v>
       </c>
       <c r="F19">
-        <v>31.7466283309125</v>
+        <v>27.76560808881435</v>
       </c>
       <c r="G19">
-        <v>3.669277330726345</v>
+        <v>2.093854870375653</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.09262023959744</v>
+        <v>18.55771038814779</v>
       </c>
       <c r="K19">
-        <v>11.56576803401389</v>
+        <v>14.45430445463955</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.38493848972054</v>
+        <v>16.02819525908935</v>
       </c>
       <c r="C20">
-        <v>7.0939617837738</v>
+        <v>10.85451901011796</v>
       </c>
       <c r="D20">
-        <v>6.346015086156282</v>
+        <v>5.093182513973357</v>
       </c>
       <c r="F20">
-        <v>31.76781947214052</v>
+        <v>28.01802723324212</v>
       </c>
       <c r="G20">
-        <v>3.668383924889442</v>
+        <v>2.091048932493868</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.07356058739417</v>
+        <v>18.58319223745987</v>
       </c>
       <c r="K20">
-        <v>11.63655939211146</v>
+        <v>14.7340751505854</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.7223319402162</v>
+        <v>17.03968218078543</v>
       </c>
       <c r="C21">
-        <v>7.350039992063458</v>
+        <v>11.57370325938372</v>
       </c>
       <c r="D21">
-        <v>6.352693820740376</v>
+        <v>5.073619396733062</v>
       </c>
       <c r="F21">
-        <v>31.84938845291328</v>
+        <v>28.89476728287319</v>
       </c>
       <c r="G21">
-        <v>3.665475485193052</v>
+        <v>2.081707642072727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.01602749686042</v>
+        <v>18.69670226556596</v>
       </c>
       <c r="K21">
-        <v>11.87415170332153</v>
+        <v>15.644937346905</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.9395277164818</v>
+        <v>17.67608667320372</v>
       </c>
       <c r="C22">
-        <v>7.514076402572299</v>
+        <v>12.02798868494947</v>
       </c>
       <c r="D22">
-        <v>6.3570361993983</v>
+        <v>5.060790814459662</v>
       </c>
       <c r="F22">
-        <v>31.91039689422186</v>
+        <v>29.48937357297727</v>
       </c>
       <c r="G22">
-        <v>3.66364384674483</v>
+        <v>2.075657348038956</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.98329711998346</v>
+        <v>18.7929855280121</v>
       </c>
       <c r="K22">
-        <v>12.02897134267525</v>
+        <v>16.21894073902442</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.82393348146504</v>
+        <v>17.33865121913635</v>
       </c>
       <c r="C23">
-        <v>7.426849033381141</v>
+        <v>11.78693966998107</v>
       </c>
       <c r="D23">
-        <v>6.35472079611518</v>
+        <v>5.067642919354465</v>
       </c>
       <c r="F23">
-        <v>31.87713337361264</v>
+        <v>29.17002578253021</v>
       </c>
       <c r="G23">
-        <v>3.664615116367981</v>
+        <v>2.078882131594443</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.00031883032476</v>
+        <v>18.73949052145645</v>
       </c>
       <c r="K23">
-        <v>11.94640030997706</v>
+        <v>15.91450532049455</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.37937369762242</v>
+        <v>16.01124000622759</v>
       </c>
       <c r="C24">
-        <v>7.089724295750058</v>
+        <v>10.84249230547712</v>
       </c>
       <c r="D24">
-        <v>6.345905576674474</v>
+        <v>5.093501833437405</v>
       </c>
       <c r="F24">
-        <v>31.76661667990992</v>
+        <v>28.00405840095831</v>
       </c>
       <c r="G24">
-        <v>3.668432634699418</v>
+        <v>2.091202673465115</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.07458284069258</v>
+        <v>18.58169125220822</v>
       </c>
       <c r="K24">
-        <v>11.63267213768816</v>
+        <v>14.71882206586747</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.88826498802085</v>
+        <v>14.47059120224613</v>
       </c>
       <c r="C25">
-        <v>6.713761026642088</v>
+        <v>9.753433943787424</v>
       </c>
       <c r="D25">
-        <v>6.336314590502766</v>
+        <v>5.121344773025567</v>
       </c>
       <c r="F25">
-        <v>31.68063048897474</v>
+        <v>26.83755816023421</v>
       </c>
       <c r="G25">
-        <v>3.672849674981649</v>
+        <v>2.104787368574015</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.17545070000388</v>
+        <v>18.49794095176336</v>
       </c>
       <c r="K25">
-        <v>11.29405300026637</v>
+        <v>13.33505958593085</v>
       </c>
       <c r="N25">
         <v>0</v>
